--- a/src/predicciones/holt_winters/producto_214.xlsx
+++ b/src/predicciones/holt_winters/producto_214.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,135 +404,1620 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44932</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.207968501867936</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44939</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.55361255862431</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44940</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.312229498621481</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44945</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.608523920754927</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44946</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.087509663412168</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44953</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8391692315978529</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44954</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.820565897887616</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44960</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.221803133200392</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44967</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.567447189956767</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44972</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.326064129953938</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44974</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.622358552087384</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44975</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>1.101344294744624</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44976</v>
+      </c>
+      <c r="B14">
+        <v>0.8530038629303098</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B15">
+        <v>1.834400529220072</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B16">
+        <v>1.235637764532849</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B17">
+        <v>1.581281821289224</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B18">
+        <v>1.339898761286395</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B19">
+        <v>1.636193183419841</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B20">
+        <v>1.115178926077081</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B21">
+        <v>0.8668384942627665</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B22">
+        <v>1.848235160552529</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B23">
+        <v>1.249472395865306</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B24">
+        <v>1.595116452621681</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B25">
+        <v>1.353733392618852</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B26">
+        <v>1.650027814752298</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B27">
+        <v>1.129013557409538</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B28">
+        <v>0.8806731255952234</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B29">
+        <v>1.862069791884986</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B30">
+        <v>1.263307027197763</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B31">
+        <v>1.608951083954137</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B32">
+        <v>1.367568023951309</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B33">
+        <v>1.663862446084755</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B34">
+        <v>1.142848188741995</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B35">
+        <v>0.8945077569276803</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B36">
+        <v>1.875904423217443</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B37">
+        <v>1.27714165853022</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B38">
+        <v>1.622785715286594</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B39">
+        <v>1.381402655283765</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B40">
+        <v>1.677697077417212</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B41">
+        <v>1.156682820074452</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B42">
+        <v>0.9083423882601369</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B43">
+        <v>1.8897390545499</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B44">
+        <v>1.290976289862676</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B45">
+        <v>1.636620346619051</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B46">
+        <v>1.395237286616222</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B47">
+        <v>1.691531708749668</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B48">
+        <v>1.170517451406909</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B49">
+        <v>0.9221770195925938</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B50">
+        <v>1.903573685882357</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B51">
+        <v>1.304810921195133</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B52">
+        <v>1.650454977951508</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B53">
+        <v>1.409071917948679</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B54">
+        <v>1.705366340082125</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B55">
+        <v>1.184352082739365</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B56">
+        <v>0.9360116509250507</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B57">
+        <v>1.917408317214813</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B58">
+        <v>1.31864555252759</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B59">
+        <v>1.664289609283965</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B60">
+        <v>1.422906549281136</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B61">
+        <v>1.719200971414582</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B62">
+        <v>1.198186714071822</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B63">
+        <v>0.9498462822575073</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B64">
+        <v>1.93124294854727</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B65">
+        <v>1.332480183860047</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B66">
+        <v>1.678124240616422</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B67">
+        <v>1.436741180613593</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B68">
+        <v>1.733035602747039</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B69">
+        <v>1.212021345404279</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B70">
+        <v>0.9636809135899642</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B71">
+        <v>1.945077579879727</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B72">
+        <v>1.346314815192504</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B73">
+        <v>1.691958871948879</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B74">
+        <v>1.450575811946049</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B75">
+        <v>1.746870234079495</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B76">
+        <v>1.225855976736736</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B77">
+        <v>0.9775155449224211</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B78">
+        <v>1.958912211212184</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B79">
+        <v>1.36014944652496</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B80">
+        <v>1.705793503281335</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B81">
+        <v>1.464410443278506</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B82">
+        <v>1.760704865411952</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B83">
+        <v>1.239690608069193</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B84">
+        <v>0.991350176254878</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B85">
+        <v>1.972746842544641</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B86">
+        <v>1.373984077857417</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B87">
+        <v>1.719628134613792</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B88">
+        <v>1.478245074610963</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B89">
+        <v>1.774539496744409</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B90">
+        <v>1.253525239401649</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B91">
+        <v>1.005184807587335</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B92">
+        <v>1.986581473877097</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B93">
+        <v>1.387818709189874</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B94">
+        <v>1.733462765946249</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B95">
+        <v>1.49207970594342</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B96">
+        <v>1.788374128076866</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B97">
+        <v>1.267359870734106</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B98">
+        <v>1.019019438919792</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B99">
+        <v>2.000416105209554</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B100">
+        <v>1.401653340522331</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B101">
+        <v>1.747297397278706</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B102">
+        <v>1.505914337275877</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B103">
+        <v>1.802208759409323</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B104">
+        <v>1.281194502066563</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B105">
+        <v>1.032854070252248</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B106">
+        <v>2.014250736542011</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B107">
+        <v>1.415487971854788</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B108">
+        <v>1.761132028611162</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B109">
+        <v>1.519748968608334</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B110">
+        <v>1.816043390741779</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B111">
+        <v>1.29502913339902</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B112">
+        <v>1.046688701584705</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B113">
+        <v>2.028085367874468</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B114">
+        <v>1.429322603187245</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B115">
+        <v>1.774966659943619</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B116">
+        <v>1.533583599940791</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B117">
+        <v>1.829878022074236</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B118">
+        <v>1.308863764731476</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B119">
+        <v>1.060523332917162</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B120">
+        <v>2.041919999206925</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B121">
+        <v>1.443157234519701</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B122">
+        <v>1.788801291276076</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B123">
+        <v>1.547418231273247</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B124">
+        <v>1.843712653406693</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B125">
+        <v>1.322698396063934</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B126">
+        <v>1.074357964249619</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B127">
+        <v>2.055754630539381</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B128">
+        <v>1.456991865852158</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B129">
+        <v>1.802635922608533</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B130">
+        <v>1.561252862605704</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B131">
+        <v>1.85754728473915</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B132">
+        <v>1.33653302739639</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B133">
+        <v>1.088192595582075</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B134">
+        <v>2.069589261871839</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B135">
+        <v>1.470826497184615</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B136">
+        <v>1.81647055394099</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B137">
+        <v>1.575087493938161</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B138">
+        <v>1.871381916071607</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B139">
+        <v>1.350367658728847</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B140">
+        <v>1.102027226914532</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B141">
+        <v>2.083423893204295</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B142">
+        <v>1.484661128517072</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B143">
+        <v>1.830305185273446</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B144">
+        <v>1.588922125270618</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B145">
+        <v>1.885216547404064</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B146">
+        <v>1.364202290061304</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B147">
+        <v>1.115861858246989</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B148">
+        <v>2.097258524536752</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
